--- a/Business Analysis/data/user_14.xlsx
+++ b/Business Analysis/data/user_14.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usersCode\MScDataScience\Multimodal analysis\Preprocessing\user_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E06B3D-7A9A-4281-B5BD-A8FBDAC87650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791CE27F-30E2-4DC3-AEB6-74A930F535E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{33D74337-3ACC-4EFF-876D-D6C65648EF60}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="54">
   <si>
     <t>gender</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>TONES AND I - DANCE MONKEY</t>
-  </si>
-  <si>
-    <t>Happy</t>
   </si>
   <si>
     <t>TOQUEL - Business</t>
@@ -573,7 +570,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,28 +595,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
       <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -633,25 +630,25 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>38</v>
-      </c>
-      <c r="J2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -665,25 +662,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>14</v>
       </c>
       <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -697,25 +694,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>14</v>
       </c>
       <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>38</v>
-      </c>
-      <c r="J4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -729,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5">
         <v>14</v>
       </c>
       <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
         <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -761,25 +758,25 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>14</v>
       </c>
       <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
         <v>38</v>
-      </c>
-      <c r="J6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -793,25 +790,25 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>14</v>
       </c>
       <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -825,25 +822,25 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8">
         <v>14</v>
       </c>
       <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
         <v>38</v>
-      </c>
-      <c r="J8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -854,28 +851,28 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <v>14</v>
       </c>
       <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
         <v>40</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -886,28 +883,28 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>14</v>
       </c>
       <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
         <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -918,28 +915,28 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -950,28 +947,28 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12">
         <v>14</v>
       </c>
       <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" t="s">
         <v>43</v>
-      </c>
-      <c r="J12" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -982,28 +979,28 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <v>14</v>
       </c>
       <c r="I13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" t="s">
         <v>43</v>
-      </c>
-      <c r="J13" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1014,28 +1011,28 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>14</v>
       </c>
       <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
         <v>45</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1046,28 +1043,28 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15">
         <v>14</v>
       </c>
       <c r="I15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
         <v>45</v>
-      </c>
-      <c r="J15" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1078,28 +1075,28 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1110,28 +1107,28 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17">
         <v>14</v>
       </c>
       <c r="I17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
         <v>48</v>
-      </c>
-      <c r="J17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1142,28 +1139,28 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>14</v>
       </c>
       <c r="I18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" t="s">
         <v>48</v>
-      </c>
-      <c r="J18" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1174,28 +1171,28 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19">
         <v>14</v>
       </c>
       <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
         <v>50</v>
-      </c>
-      <c r="J19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1206,28 +1203,28 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20">
         <v>14</v>
       </c>
       <c r="I20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
         <v>50</v>
-      </c>
-      <c r="J20" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
